--- a/Mifos Automation Excels/Client/3076-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3076-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="710" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Acc_Disbursement" sheetId="6" r:id="rId5"/>
     <sheet name="Acc_Repayment" sheetId="8" r:id="rId6"/>
-    <sheet name="Acc_Upfront" sheetId="9" r:id="rId7"/>
+    <sheet name="Acc_Upfront1" sheetId="11" r:id="rId7"/>
+    <sheet name="Acc_Upfront2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -148,27 +149,12 @@
     <t>L7</t>
   </si>
   <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
     <t>Fees Receivable(4)</t>
   </si>
   <si>
-    <t>$ 100</t>
-  </si>
-  <si>
-    <t>$ 785.8</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
     <t>clickonmakerepayment</t>
   </si>
   <si>
@@ -187,19 +173,34 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
+    <t>L30</t>
+  </si>
+  <si>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
+  </si>
+  <si>
+    <t>$ 100</t>
+  </si>
+  <si>
+    <t>$ 987.72</t>
+  </si>
+  <si>
+    <t>$ 668.41</t>
+  </si>
+  <si>
+    <t>L32</t>
+  </si>
+  <si>
     <t>Income from fees(8)</t>
   </si>
   <si>
-    <t>L27</t>
-  </si>
-  <si>
-    <t>$ 1,200</t>
-  </si>
-  <si>
-    <t>L30</t>
-  </si>
-  <si>
-    <t>$ 668.41</t>
+    <t>$ 1,200</t>
   </si>
 </sst>
 </file>
@@ -306,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -339,9 +340,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -660,15 +658,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="15">
         <v>42036</v>
@@ -684,7 +682,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1674,7 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1705,7 +1703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>13</v>
       </c>
@@ -1728,12 +1726,10 @@
         <v>38</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>14</v>
       </c>
@@ -1757,9 +1753,8 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="13"/>
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,13 +1766,14 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1821,7 +1817,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
@@ -1832,9 +1828,8 @@
       <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,7 +1843,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
@@ -1857,11 +1852,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12"/>
+        <v>42</v>
+      </c>
       <c r="I3" s="12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1875,7 +1869,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -1884,11 +1878,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>43</v>
+      </c>
       <c r="I4" s="12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1902,7 +1895,7 @@
         <v>42036</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>36</v>
@@ -1914,9 +1907,8 @@
         <v>37</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="12"/>
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,10 +1917,108 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>39</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="17">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>40</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,133 +2064,56 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>25</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="16">
+        <v>35</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>42005</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>36</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>26</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="18">
-        <v>42005</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="G3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>35</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18">
-        <v>42005</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>36</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="18">
-        <v>42005</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3076-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3076-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-UPFRONT-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="710" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -801,10 +801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,12 +822,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,17 +868,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -904,8 +906,9 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -943,17 +946,18 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -989,17 +993,18 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7">
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1035,17 +1040,18 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1081,17 +1087,18 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1127,17 +1134,18 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1173,17 +1181,18 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1219,17 +1228,18 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1265,17 +1275,18 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1311,17 +1322,18 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1357,17 +1369,18 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1403,17 +1416,18 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>987.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>987.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1449,13 +1463,14 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
         <v>1003.49</v>
       </c>
     </row>
@@ -2017,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
